--- a/biology/Médecine/Samuel_Musgrave/Samuel_Musgrave.xlsx
+++ b/biology/Médecine/Samuel_Musgrave/Samuel_Musgrave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Musgrave est un médecin et philologue anglais, né le 29 septembre 1732 et mort à Exeter le 5 juillet 1780. Il est le petit-fils de William Musgrave.
 Il exerce la médecine dans cette ville, publie le traité de la goutte régulière de son grand-père, et se fait connaître par quelques écrits sur la médecine.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On a de lui: Apologia pro empirica medicina (Londres, 1763) ; Some remarks on Boerhaave's theory of the attrition of the blood in the lungs (Londres, 1760) ; An essay on the nature and cure of the worm fever (Londres, 1776) ; Speculations and conjectures on the qualifies of the nerves (Londres, 1776) ; Gulstonian lectures on the dyspnæa, on pleurisy and peripneumonia ; On pulmonary consomption (Londres, 1778). 
 On lui doit aussi quelques travaux philologiques : Exercitationum in Euripidem libri duo (1762, in-8°) ; une édition d’Euripide (Oxford, 1778, 4 vol. in-4°), d’une grande beauté typographique ; des dissertations Sur la mythologie des Grecs, etc.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Samuel Musgrave », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
 </t>
